--- a/docs/Gantt Diagramm.xlsx
+++ b/docs/Gantt Diagramm.xlsx
@@ -626,23 +626,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,11 +656,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -665,11 +668,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR17" sqref="BR17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18"/>
@@ -1048,75 +1048,75 @@
         <v>5</v>
       </c>
       <c r="F1" s="22"/>
-      <c r="G1" s="74">
+      <c r="G1" s="75">
         <v>7.03</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="74">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="75">
         <v>8.0299999999999994</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="74">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="75">
         <v>9.0299999999999994</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="74">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="75">
         <v>14.03</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="74">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="75">
         <v>15.03</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="77"/>
     </row>
     <row r="2" spans="1:63" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="BJ2" s="7"/>
     </row>
     <row r="3" spans="1:63" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="58">
@@ -1239,7 +1239,8 @@
       <c r="F3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="40"/>
       <c r="K3" s="49"/>
       <c r="N3" s="50"/>
       <c r="R3" s="11"/>
@@ -1267,7 +1268,7 @@
       <c r="BJ3" s="11"/>
     </row>
     <row r="4" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60"/>
       <c r="D4" s="64"/>
@@ -1275,7 +1276,8 @@
       <c r="F4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="K4" s="51"/>
       <c r="N4" s="44"/>
       <c r="R4" s="14"/>
@@ -1303,7 +1305,7 @@
       <c r="BJ4" s="14"/>
     </row>
     <row r="5" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="58"/>
       <c r="C5" s="60"/>
       <c r="D5" s="64"/>
@@ -1341,7 +1343,7 @@
       <c r="BJ5" s="14"/>
     </row>
     <row r="6" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="58"/>
       <c r="C6" s="61"/>
       <c r="D6" s="66"/>
@@ -1407,7 +1409,7 @@
       <c r="BJ6" s="14"/>
     </row>
     <row r="7" spans="1:63" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="58">
@@ -1451,7 +1453,7 @@
       <c r="BJ7" s="11"/>
     </row>
     <row r="8" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="58"/>
       <c r="C8" s="60"/>
       <c r="D8" s="64"/>
@@ -1487,7 +1489,7 @@
       <c r="BJ8" s="14"/>
     </row>
     <row r="9" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="58"/>
       <c r="C9" s="60"/>
       <c r="D9" s="64"/>
@@ -1528,7 +1530,7 @@
       <c r="BJ9" s="14"/>
     </row>
     <row r="10" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="58"/>
       <c r="C10" s="61"/>
       <c r="D10" s="66"/>
@@ -1594,8 +1596,8 @@
       <c r="BJ10" s="14"/>
     </row>
     <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70">
+      <c r="A11" s="73"/>
+      <c r="B11" s="68">
         <v>3</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -1610,10 +1612,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="9"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="9"/>
-      <c r="V11" s="11"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
       <c r="W11" s="9"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="9"/>
@@ -1637,8 +1639,8 @@
       <c r="BK11" s="9"/>
     </row>
     <row r="12" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="60"/>
       <c r="D12" s="64"/>
       <c r="E12" s="65"/>
@@ -1648,11 +1650,13 @@
       <c r="G12" s="12"/>
       <c r="J12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="12"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="12"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="12"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="12"/>
       <c r="AD12" s="14"/>
@@ -1675,8 +1679,8 @@
       <c r="BK12" s="12"/>
     </row>
     <row r="13" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
       <c r="E13" s="65"/>
@@ -1713,8 +1717,8 @@
       <c r="BK13" s="12"/>
     </row>
     <row r="14" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="61"/>
       <c r="D14" s="66"/>
       <c r="E14" s="67"/>
@@ -1751,8 +1755,8 @@
       <c r="BK14" s="37"/>
     </row>
     <row r="15" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="72">
+      <c r="A15" s="73"/>
+      <c r="B15" s="82">
         <v>4</v>
       </c>
       <c r="C15" s="59" t="s">
@@ -1775,10 +1779,10 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -1821,7 +1825,7 @@
       <c r="BJ15" s="14"/>
     </row>
     <row r="16" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="58"/>
       <c r="C16" s="60"/>
       <c r="D16" s="64"/>
@@ -1841,13 +1845,11 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="13"/>
@@ -1887,7 +1889,7 @@
       <c r="BJ16" s="14"/>
     </row>
     <row r="17" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="58"/>
       <c r="C17" s="60"/>
       <c r="D17" s="64"/>
@@ -1953,7 +1955,7 @@
       <c r="BJ17" s="14"/>
     </row>
     <row r="18" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="58"/>
       <c r="C18" s="61"/>
       <c r="D18" s="66"/>
@@ -2019,7 +2021,7 @@
       <c r="BJ18" s="14"/>
     </row>
     <row r="19" spans="1:62" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="58">
         <v>2</v>
       </c>
@@ -2061,7 +2063,7 @@
       <c r="BJ19" s="11"/>
     </row>
     <row r="20" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="58"/>
       <c r="C20" s="60"/>
       <c r="D20" s="64"/>
@@ -2097,7 +2099,7 @@
       <c r="BJ20" s="14"/>
     </row>
     <row r="21" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="58"/>
       <c r="C21" s="60"/>
       <c r="D21" s="64"/>
@@ -2133,7 +2135,7 @@
       <c r="BJ21" s="14"/>
     </row>
     <row r="22" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="58"/>
       <c r="C22" s="61"/>
       <c r="D22" s="66"/>
@@ -2199,8 +2201,8 @@
       <c r="BJ22" s="14"/>
     </row>
     <row r="23" spans="1:62" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70">
+      <c r="A23" s="73"/>
+      <c r="B23" s="68">
         <v>3</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -2217,9 +2219,10 @@
       <c r="N23" s="11"/>
       <c r="O23" s="9"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="9"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="9"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="9"/>
       <c r="AD23" s="11"/>
@@ -2241,8 +2244,8 @@
       <c r="BJ23" s="11"/>
     </row>
     <row r="24" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="60"/>
       <c r="D24" s="64"/>
       <c r="E24" s="65"/>
@@ -2254,9 +2257,11 @@
       <c r="N24" s="14"/>
       <c r="O24" s="12"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="12"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="12"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="12"/>
       <c r="AD24" s="14"/>
@@ -2278,8 +2283,8 @@
       <c r="BJ24" s="14"/>
     </row>
     <row r="25" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="60"/>
       <c r="D25" s="64"/>
       <c r="E25" s="65"/>
@@ -2315,8 +2320,8 @@
       <c r="BJ25" s="14"/>
     </row>
     <row r="26" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="61"/>
       <c r="D26" s="66"/>
       <c r="E26" s="67"/>
@@ -2381,8 +2386,8 @@
       <c r="BJ26" s="39"/>
     </row>
     <row r="27" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="72">
+      <c r="A27" s="73"/>
+      <c r="B27" s="82">
         <v>4</v>
       </c>
       <c r="C27" s="59" t="s">
@@ -2451,7 +2456,7 @@
       <c r="BJ27" s="14"/>
     </row>
     <row r="28" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="58"/>
       <c r="C28" s="60"/>
       <c r="D28" s="64"/>
@@ -2517,7 +2522,7 @@
       <c r="BJ28" s="14"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="58"/>
       <c r="C29" s="60"/>
       <c r="D29" s="64"/>
@@ -2583,7 +2588,7 @@
       <c r="BJ29" s="14"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="58"/>
       <c r="C30" s="61"/>
       <c r="D30" s="66"/>
@@ -2649,7 +2654,7 @@
       <c r="BJ30" s="14"/>
     </row>
     <row r="31" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="58">
         <v>2</v>
       </c>
@@ -2677,8 +2682,8 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="10"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="9"/>
@@ -2719,7 +2724,7 @@
       <c r="BJ31" s="11"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="58"/>
       <c r="C32" s="60"/>
       <c r="D32" s="64"/>
@@ -2743,9 +2748,9 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="13"/>
@@ -2785,7 +2790,7 @@
       <c r="BJ32" s="14"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="58"/>
       <c r="C33" s="60"/>
       <c r="D33" s="64"/>
@@ -2851,7 +2856,7 @@
       <c r="BJ33" s="14"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="58"/>
       <c r="C34" s="61"/>
       <c r="D34" s="66"/>
@@ -2917,8 +2922,8 @@
       <c r="BJ34" s="14"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70">
+      <c r="A35" s="73"/>
+      <c r="B35" s="68">
         <v>3</v>
       </c>
       <c r="C35" s="59" t="s">
@@ -2987,8 +2992,8 @@
       <c r="BJ35" s="11"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="60"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
@@ -3053,8 +3058,8 @@
       <c r="BJ36" s="14"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="60"/>
       <c r="D37" s="64"/>
       <c r="E37" s="65"/>
@@ -3119,8 +3124,8 @@
       <c r="BJ37" s="14"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="61"/>
       <c r="D38" s="66"/>
       <c r="E38" s="67"/>
@@ -3185,8 +3190,8 @@
       <c r="BJ38" s="39"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="72">
+      <c r="A39" s="73"/>
+      <c r="B39" s="82">
         <v>4</v>
       </c>
       <c r="C39" s="59" t="s">
@@ -3255,7 +3260,7 @@
       <c r="BJ39" s="14"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="58"/>
       <c r="C40" s="60"/>
       <c r="D40" s="64"/>
@@ -3321,7 +3326,7 @@
       <c r="BJ40" s="14"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="58"/>
       <c r="C41" s="60"/>
       <c r="D41" s="64"/>
@@ -3387,7 +3392,7 @@
       <c r="BJ41" s="14"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="58"/>
       <c r="C42" s="61"/>
       <c r="D42" s="66"/>
@@ -3453,7 +3458,7 @@
       <c r="BJ42" s="14"/>
     </row>
     <row r="43" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="58">
         <v>2</v>
       </c>
@@ -3523,7 +3528,7 @@
       <c r="BJ43" s="11"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="58"/>
       <c r="C44" s="60"/>
       <c r="D44" s="64"/>
@@ -3589,7 +3594,7 @@
       <c r="BJ44" s="14"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="58"/>
       <c r="C45" s="60"/>
       <c r="D45" s="64"/>
@@ -3655,7 +3660,7 @@
       <c r="BJ45" s="14"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="58"/>
       <c r="C46" s="61"/>
       <c r="D46" s="66"/>
@@ -3721,7 +3726,7 @@
       <c r="BJ46" s="14"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="58">
@@ -3795,7 +3800,7 @@
       <c r="BJ47" s="11"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="58"/>
       <c r="C48" s="60"/>
       <c r="D48" s="64"/>
@@ -3861,7 +3866,7 @@
       <c r="BJ48" s="14"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="58"/>
       <c r="C49" s="60"/>
       <c r="D49" s="64"/>
@@ -3927,7 +3932,7 @@
       <c r="BJ49" s="14"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="58"/>
       <c r="C50" s="61"/>
       <c r="D50" s="66"/>
@@ -3993,7 +3998,7 @@
       <c r="BJ50" s="14"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="58">
@@ -4065,7 +4070,7 @@
       <c r="BJ51" s="11"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="58"/>
       <c r="C52" s="60"/>
       <c r="D52" s="64"/>
@@ -4131,7 +4136,7 @@
       <c r="BJ52" s="14"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="58"/>
       <c r="C53" s="60"/>
       <c r="D53" s="64"/>
@@ -4197,7 +4202,7 @@
       <c r="BJ53" s="14"/>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="58"/>
       <c r="C54" s="61"/>
       <c r="D54" s="66"/>
@@ -4263,15 +4268,15 @@
       <c r="BJ54" s="14"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
-      <c r="B55" s="73">
+      <c r="A55" s="70"/>
+      <c r="B55" s="79">
         <v>11</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
       <c r="H55" s="29"/>
@@ -4335,11 +4340,11 @@
       <c r="BJ55" s="30"/>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="33"/>
@@ -4400,20 +4405,30 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:E14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:E18"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:E22"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:E38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:E42"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="D51:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:E50"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:E30"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:E46"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:E34"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="B1:B2"/>
@@ -4424,44 +4439,34 @@
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="B55:B56"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="D51:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:E50"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:E18"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:E26"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:E30"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:E46"/>
     <mergeCell ref="A7:A46"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:E34"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:E38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:E42"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:E22"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:E14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/Gantt Diagramm.xlsx
+++ b/docs/Gantt Diagramm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>Nr.</t>
   </si>
@@ -79,9 +79,6 @@
       </rPr>
       <t>Dokumentationsvorlage Teil 2 (Realisierungsphase).docx</t>
     </r>
-  </si>
-  <si>
-    <t>16 h /...</t>
   </si>
   <si>
     <r>
@@ -160,6 +157,15 @@
   </si>
   <si>
     <t>6h / 5h</t>
+  </si>
+  <si>
+    <t>User Story 11</t>
+  </si>
+  <si>
+    <t>User Story 12</t>
+  </si>
+  <si>
+    <t>16 h /…</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -626,26 +632,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,11 +644,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -668,9 +656,31 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -977,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1049,7 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18"/>
@@ -1048,75 +1058,75 @@
         <v>5</v>
       </c>
       <c r="F1" s="22"/>
-      <c r="G1" s="75">
+      <c r="G1" s="69">
         <v>7.03</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="75">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="69">
         <v>8.0299999999999994</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="75">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="69">
         <v>9.0299999999999994</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="75">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="69">
         <v>14.03</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="75">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="69">
         <v>15.03</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="75"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="77"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="71"/>
     </row>
     <row r="2" spans="1:63" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
@@ -1223,21 +1233,21 @@
       <c r="BJ2" s="7"/>
     </row>
     <row r="3" spans="1:63" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="40"/>
@@ -1268,13 +1278,13 @@
       <c r="BJ3" s="11"/>
     </row>
     <row r="4" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
       <c r="F4" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
@@ -1305,13 +1315,13 @@
       <c r="BJ4" s="14"/>
     </row>
     <row r="5" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58"/>
       <c r="C5" s="60"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
       <c r="F5" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="40"/>
@@ -1343,13 +1353,13 @@
       <c r="BJ5" s="14"/>
     </row>
     <row r="6" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="58"/>
       <c r="C6" s="61"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
@@ -1409,19 +1419,19 @@
       <c r="BJ6" s="14"/>
     </row>
     <row r="7" spans="1:63" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="78" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="58">
         <v>2</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="63"/>
       <c r="F7" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9"/>
       <c r="J7" s="11"/>
@@ -1453,13 +1463,13 @@
       <c r="BJ7" s="11"/>
     </row>
     <row r="8" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="58"/>
       <c r="C8" s="60"/>
       <c r="D8" s="64"/>
       <c r="E8" s="65"/>
       <c r="F8" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="14"/>
       <c r="N8" s="14"/>
@@ -1489,13 +1499,13 @@
       <c r="BJ8" s="14"/>
     </row>
     <row r="9" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="58"/>
       <c r="C9" s="60"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
       <c r="F9" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="40"/>
@@ -1530,13 +1540,13 @@
       <c r="BJ9" s="14"/>
     </row>
     <row r="10" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="58"/>
       <c r="C10" s="61"/>
       <c r="D10" s="66"/>
       <c r="E10" s="67"/>
       <c r="F10" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1596,17 +1606,17 @@
       <c r="BJ10" s="14"/>
     </row>
     <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="68">
+      <c r="A11" s="76"/>
+      <c r="B11" s="81">
         <v>3</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="63"/>
       <c r="F11" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="11"/>
@@ -1639,13 +1649,13 @@
       <c r="BK11" s="9"/>
     </row>
     <row r="12" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="60"/>
       <c r="D12" s="64"/>
       <c r="E12" s="65"/>
       <c r="F12" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="12"/>
       <c r="J12" s="14"/>
@@ -1679,13 +1689,13 @@
       <c r="BK12" s="12"/>
     </row>
     <row r="13" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
       <c r="E13" s="65"/>
       <c r="F13" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="12"/>
       <c r="J13" s="14"/>
@@ -1717,13 +1727,13 @@
       <c r="BK13" s="12"/>
     </row>
     <row r="14" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="61"/>
       <c r="D14" s="66"/>
       <c r="E14" s="67"/>
       <c r="F14" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="37"/>
       <c r="J14" s="39"/>
@@ -1755,17 +1765,17 @@
       <c r="BK14" s="37"/>
     </row>
     <row r="15" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="82">
+      <c r="A15" s="76"/>
+      <c r="B15" s="68">
         <v>4</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="63"/>
       <c r="F15" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1825,13 +1835,13 @@
       <c r="BJ15" s="14"/>
     </row>
     <row r="16" spans="1:63" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="58"/>
       <c r="C16" s="60"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
       <c r="F16" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1889,13 +1899,13 @@
       <c r="BJ16" s="14"/>
     </row>
     <row r="17" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="58"/>
       <c r="C17" s="60"/>
       <c r="D17" s="64"/>
       <c r="E17" s="65"/>
       <c r="F17" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1955,13 +1965,13 @@
       <c r="BJ17" s="14"/>
     </row>
     <row r="18" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="58"/>
       <c r="C18" s="61"/>
       <c r="D18" s="66"/>
       <c r="E18" s="67"/>
       <c r="F18" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -2021,17 +2031,17 @@
       <c r="BJ18" s="14"/>
     </row>
     <row r="19" spans="1:62" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="58">
         <v>2</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="63"/>
       <c r="F19" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="9"/>
       <c r="J19" s="11"/>
@@ -2063,13 +2073,13 @@
       <c r="BJ19" s="11"/>
     </row>
     <row r="20" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="58"/>
       <c r="C20" s="60"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65"/>
       <c r="F20" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="14"/>
       <c r="N20" s="14"/>
@@ -2099,17 +2109,19 @@
       <c r="BJ20" s="14"/>
     </row>
     <row r="21" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="58"/>
       <c r="C21" s="60"/>
       <c r="D21" s="64"/>
       <c r="E21" s="65"/>
       <c r="F21" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12"/>
       <c r="V21" s="14"/>
@@ -2135,13 +2147,13 @@
       <c r="BJ21" s="14"/>
     </row>
     <row r="22" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="58"/>
       <c r="C22" s="61"/>
       <c r="D22" s="66"/>
       <c r="E22" s="67"/>
       <c r="F22" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -2151,10 +2163,10 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="55"/>
       <c r="S22" s="12"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2201,17 +2213,17 @@
       <c r="BJ22" s="14"/>
     </row>
     <row r="23" spans="1:62" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="68">
+      <c r="A23" s="76"/>
+      <c r="B23" s="81">
         <v>3</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="63"/>
       <c r="F23" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="9"/>
       <c r="J23" s="11"/>
@@ -2244,13 +2256,13 @@
       <c r="BJ23" s="11"/>
     </row>
     <row r="24" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="60"/>
       <c r="D24" s="64"/>
       <c r="E24" s="65"/>
       <c r="F24" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="12"/>
       <c r="J24" s="14"/>
@@ -2283,13 +2295,13 @@
       <c r="BJ24" s="14"/>
     </row>
     <row r="25" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="60"/>
       <c r="D25" s="64"/>
       <c r="E25" s="65"/>
       <c r="F25" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="12"/>
       <c r="J25" s="14"/>
@@ -2320,13 +2332,13 @@
       <c r="BJ25" s="14"/>
     </row>
     <row r="26" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="61"/>
       <c r="D26" s="66"/>
       <c r="E26" s="67"/>
       <c r="F26" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
@@ -2386,17 +2398,17 @@
       <c r="BJ26" s="39"/>
     </row>
     <row r="27" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="82">
+      <c r="A27" s="76"/>
+      <c r="B27" s="68">
         <v>4</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="63"/>
       <c r="F27" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2456,13 +2468,13 @@
       <c r="BJ27" s="14"/>
     </row>
     <row r="28" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="58"/>
       <c r="C28" s="60"/>
       <c r="D28" s="64"/>
       <c r="E28" s="65"/>
       <c r="F28" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2522,13 +2534,13 @@
       <c r="BJ28" s="14"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="58"/>
       <c r="C29" s="60"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2546,8 +2558,8 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="13"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="40"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="12"/>
@@ -2588,13 +2600,13 @@
       <c r="BJ29" s="14"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="58"/>
       <c r="C30" s="61"/>
       <c r="D30" s="66"/>
       <c r="E30" s="67"/>
       <c r="F30" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -2612,9 +2624,9 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="13"/>
@@ -2654,17 +2666,17 @@
       <c r="BJ30" s="14"/>
     </row>
     <row r="31" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="58">
         <v>2</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="63"/>
       <c r="F31" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
@@ -2724,13 +2736,13 @@
       <c r="BJ31" s="11"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="58"/>
       <c r="C32" s="60"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -2790,13 +2802,13 @@
       <c r="BJ32" s="14"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="58"/>
       <c r="C33" s="60"/>
       <c r="D33" s="64"/>
       <c r="E33" s="65"/>
       <c r="F33" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -2856,13 +2868,13 @@
       <c r="BJ33" s="14"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="58"/>
       <c r="C34" s="61"/>
       <c r="D34" s="66"/>
       <c r="E34" s="67"/>
       <c r="F34" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -2922,17 +2934,17 @@
       <c r="BJ34" s="14"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="68">
+      <c r="A35" s="76"/>
+      <c r="B35" s="81">
         <v>3</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="63"/>
       <c r="F35" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
@@ -2992,13 +3004,13 @@
       <c r="BJ35" s="11"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="60"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
@@ -3058,19 +3070,19 @@
       <c r="BJ36" s="14"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="60"/>
       <c r="D37" s="64"/>
       <c r="E37" s="65"/>
       <c r="F37" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="13"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="14"/>
@@ -3124,20 +3136,20 @@
       <c r="BJ37" s="14"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="69"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="61"/>
       <c r="D38" s="66"/>
       <c r="E38" s="67"/>
       <c r="F38" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
       <c r="M38" s="38"/>
       <c r="N38" s="39"/>
       <c r="O38" s="37"/>
@@ -3190,17 +3202,17 @@
       <c r="BJ38" s="39"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="82">
+      <c r="A39" s="76"/>
+      <c r="B39" s="68">
         <v>4</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="62"/>
       <c r="E39" s="63"/>
       <c r="F39" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -3260,13 +3272,13 @@
       <c r="BJ39" s="14"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="58"/>
       <c r="C40" s="60"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -3326,18 +3338,18 @@
       <c r="BJ40" s="14"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="58"/>
       <c r="C41" s="60"/>
       <c r="D41" s="64"/>
       <c r="E41" s="65"/>
       <c r="F41" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="55"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -3392,19 +3404,19 @@
       <c r="BJ41" s="14"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="58"/>
       <c r="C42" s="61"/>
       <c r="D42" s="66"/>
       <c r="E42" s="67"/>
       <c r="F42" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="13"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="40"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
@@ -3458,17 +3470,17 @@
       <c r="BJ42" s="14"/>
     </row>
     <row r="43" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="58">
         <v>2</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="63"/>
       <c r="F43" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
@@ -3528,13 +3540,13 @@
       <c r="BJ43" s="11"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="58"/>
       <c r="C44" s="60"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -3594,13 +3606,13 @@
       <c r="BJ44" s="14"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="58"/>
       <c r="C45" s="60"/>
       <c r="D45" s="64"/>
       <c r="E45" s="65"/>
       <c r="F45" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -3615,13 +3627,13 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="14"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="14"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="53"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
@@ -3660,13 +3672,13 @@
       <c r="BJ45" s="14"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="58"/>
       <c r="C46" s="61"/>
       <c r="D46" s="66"/>
       <c r="E46" s="67"/>
       <c r="F46" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -3683,11 +3695,11 @@
       <c r="S46" s="12"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="14"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="55"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
@@ -3725,22 +3737,18 @@
       <c r="BI46" s="13"/>
       <c r="BJ46" s="14"/>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
-        <v>13</v>
-      </c>
+    <row r="47" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76"/>
       <c r="B47" s="58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>17</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D47" s="62"/>
       <c r="E47" s="63"/>
       <c r="F47" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
@@ -3800,13 +3808,13 @@
       <c r="BJ47" s="11"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="58"/>
       <c r="C48" s="60"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -3866,13 +3874,13 @@
       <c r="BJ48" s="14"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="58"/>
       <c r="C49" s="60"/>
       <c r="D49" s="64"/>
       <c r="E49" s="65"/>
       <c r="F49" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -3890,8 +3898,8 @@
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
       <c r="V49" s="14"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="13"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="40"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="12"/>
@@ -3932,13 +3940,13 @@
       <c r="BJ49" s="14"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="58"/>
       <c r="C50" s="61"/>
       <c r="D50" s="66"/>
       <c r="E50" s="67"/>
       <c r="F50" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -3956,7 +3964,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="14"/>
-      <c r="W50" s="12"/>
+      <c r="W50" s="56"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="14"/>
@@ -3998,19 +4006,17 @@
       <c r="BJ50" s="14"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A51" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="58">
-        <v>6</v>
+      <c r="A51" s="76"/>
+      <c r="B51" s="81">
+        <v>3</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D51" s="62"/>
       <c r="E51" s="63"/>
       <c r="F51" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
@@ -4019,20 +4025,20 @@
       <c r="K51" s="9"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="49"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
+      <c r="V51" s="10"/>
       <c r="W51" s="9"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="11"/>
-      <c r="AA51" s="49"/>
+      <c r="AA51" s="9"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="11"/>
@@ -4070,15 +4076,15 @@
       <c r="BJ51" s="11"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="60"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G52" s="12"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="14"/>
@@ -4086,15 +4092,15 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="12"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="14"/>
@@ -4136,34 +4142,34 @@
       <c r="BJ52" s="14"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="60"/>
       <c r="D53" s="64"/>
       <c r="E53" s="65"/>
       <c r="F53" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="G53" s="12"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="12"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="51"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="12"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="53"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="14"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
@@ -4202,234 +4208,765 @@
       <c r="BJ53" s="14"/>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="61"/>
       <c r="D54" s="66"/>
       <c r="E54" s="67"/>
       <c r="F54" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="13"/>
-      <c r="AK54" s="13"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="13"/>
-      <c r="AO54" s="13"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="12"/>
-      <c r="AR54" s="13"/>
-      <c r="AS54" s="13"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="13"/>
-      <c r="AW54" s="13"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="12"/>
-      <c r="AZ54" s="13"/>
-      <c r="BA54" s="13"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="12"/>
-      <c r="BD54" s="13"/>
-      <c r="BE54" s="13"/>
-      <c r="BF54" s="14"/>
-      <c r="BG54" s="12"/>
-      <c r="BH54" s="13"/>
-      <c r="BI54" s="13"/>
-      <c r="BJ54" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="38"/>
+      <c r="AG54" s="38"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="37"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="39"/>
+      <c r="AQ54" s="37"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="39"/>
+      <c r="AU54" s="37"/>
+      <c r="AV54" s="38"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="39"/>
+      <c r="AY54" s="37"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="39"/>
+      <c r="BC54" s="37"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="39"/>
+      <c r="BG54" s="37"/>
+      <c r="BH54" s="38"/>
+      <c r="BI54" s="38"/>
+      <c r="BJ54" s="39"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="79">
+      <c r="A55" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="58">
+        <v>5</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="9"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="11"/>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
+      <c r="BF55" s="11"/>
+      <c r="BG55" s="9"/>
+      <c r="BH55" s="10"/>
+      <c r="BI55" s="10"/>
+      <c r="BJ55" s="11"/>
+    </row>
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A56" s="76"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="13"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="13"/>
+      <c r="AO56" s="13"/>
+      <c r="AP56" s="14"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="13"/>
+      <c r="AW56" s="13"/>
+      <c r="AX56" s="14"/>
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="13"/>
+      <c r="BA56" s="13"/>
+      <c r="BB56" s="14"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="13"/>
+      <c r="BE56" s="13"/>
+      <c r="BF56" s="14"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="13"/>
+      <c r="BI56" s="13"/>
+      <c r="BJ56" s="14"/>
+    </row>
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A57" s="76"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="14"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="13"/>
+      <c r="AO57" s="13"/>
+      <c r="AP57" s="14"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="13"/>
+      <c r="AS57" s="13"/>
+      <c r="AT57" s="14"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="13"/>
+      <c r="AW57" s="13"/>
+      <c r="AX57" s="14"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="13"/>
+      <c r="BA57" s="13"/>
+      <c r="BB57" s="14"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="13"/>
+      <c r="BE57" s="13"/>
+      <c r="BF57" s="14"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="13"/>
+      <c r="BI57" s="13"/>
+      <c r="BJ57" s="14"/>
+    </row>
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A58" s="79"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="13"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="13"/>
+      <c r="AO58" s="13"/>
+      <c r="AP58" s="14"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="13"/>
+      <c r="AS58" s="13"/>
+      <c r="AT58" s="14"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="13"/>
+      <c r="AW58" s="13"/>
+      <c r="AX58" s="14"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="13"/>
+      <c r="BA58" s="13"/>
+      <c r="BB58" s="14"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="13"/>
+      <c r="BE58" s="13"/>
+      <c r="BF58" s="14"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="13"/>
+      <c r="BI58" s="13"/>
+      <c r="BJ58" s="14"/>
+    </row>
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A59" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="58">
+        <v>6</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="9"/>
+      <c r="AN59" s="10"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="9"/>
+      <c r="AR59" s="10"/>
+      <c r="AS59" s="10"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="9"/>
+      <c r="AV59" s="10"/>
+      <c r="AW59" s="10"/>
+      <c r="AX59" s="11"/>
+      <c r="AY59" s="9"/>
+      <c r="AZ59" s="10"/>
+      <c r="BA59" s="10"/>
+      <c r="BB59" s="11"/>
+      <c r="BC59" s="9"/>
+      <c r="BD59" s="10"/>
+      <c r="BE59" s="10"/>
+      <c r="BF59" s="11"/>
+      <c r="BG59" s="9"/>
+      <c r="BH59" s="10"/>
+      <c r="BI59" s="10"/>
+      <c r="BJ59" s="11"/>
+    </row>
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A60" s="76"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="14"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="14"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="14"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="13"/>
+      <c r="AW60" s="13"/>
+      <c r="AX60" s="14"/>
+      <c r="AY60" s="12"/>
+      <c r="AZ60" s="13"/>
+      <c r="BA60" s="13"/>
+      <c r="BB60" s="14"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="13"/>
+      <c r="BE60" s="13"/>
+      <c r="BF60" s="14"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="13"/>
+      <c r="BI60" s="13"/>
+      <c r="BJ60" s="14"/>
+    </row>
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A61" s="76"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="14"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="14"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="14"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="14"/>
+      <c r="AY61" s="12"/>
+      <c r="AZ61" s="13"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="14"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="13"/>
+      <c r="BE61" s="13"/>
+      <c r="BF61" s="14"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="13"/>
+      <c r="BI61" s="13"/>
+      <c r="BJ61" s="14"/>
+    </row>
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="13"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="13"/>
+      <c r="AS62" s="13"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="13"/>
+      <c r="AW62" s="13"/>
+      <c r="AX62" s="14"/>
+      <c r="AY62" s="12"/>
+      <c r="AZ62" s="13"/>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="14"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="13"/>
+      <c r="BE62" s="13"/>
+      <c r="BF62" s="14"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="13"/>
+      <c r="BI62" s="13"/>
+      <c r="BJ62" s="14"/>
+    </row>
+    <row r="63" spans="1:62" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="80">
         <v>11</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C63" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="35" t="s">
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="S55" s="28"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="30" t="s">
+      <c r="S63" s="28"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="28"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="29"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="28"/>
-      <c r="AN55" s="29"/>
-      <c r="AO55" s="29"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="28"/>
-      <c r="AR55" s="29"/>
-      <c r="AS55" s="29"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="28"/>
-      <c r="AV55" s="29"/>
-      <c r="AW55" s="29"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="28"/>
-      <c r="AZ55" s="29"/>
-      <c r="BA55" s="29"/>
-      <c r="BB55" s="30"/>
-      <c r="BC55" s="28"/>
-      <c r="BD55" s="29"/>
-      <c r="BE55" s="29"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="28"/>
-      <c r="BH55" s="29"/>
-      <c r="BI55" s="29"/>
-      <c r="BJ55" s="30"/>
-    </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="32"/>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
-      <c r="AL56" s="34"/>
-      <c r="AM56" s="32"/>
-      <c r="AN56" s="33"/>
-      <c r="AO56" s="33"/>
-      <c r="AP56" s="34"/>
-      <c r="AQ56" s="32"/>
-      <c r="AR56" s="33"/>
-      <c r="AS56" s="33"/>
-      <c r="AT56" s="34"/>
-      <c r="AU56" s="32"/>
-      <c r="AV56" s="33"/>
-      <c r="AW56" s="33"/>
-      <c r="AX56" s="34"/>
-      <c r="AY56" s="32"/>
-      <c r="AZ56" s="33"/>
-      <c r="BA56" s="33"/>
-      <c r="BB56" s="34"/>
-      <c r="BC56" s="32"/>
-      <c r="BD56" s="33"/>
-      <c r="BE56" s="33"/>
-      <c r="BF56" s="34"/>
-      <c r="BG56" s="32"/>
-      <c r="BH56" s="33"/>
-      <c r="BI56" s="33"/>
-      <c r="BJ56" s="34"/>
+      <c r="AI63" s="28"/>
+      <c r="AJ63" s="29"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="30"/>
+      <c r="AM63" s="28"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="30"/>
+      <c r="AQ63" s="28"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="29"/>
+      <c r="AT63" s="30"/>
+      <c r="AU63" s="28"/>
+      <c r="AV63" s="29"/>
+      <c r="AW63" s="29"/>
+      <c r="AX63" s="30"/>
+      <c r="AY63" s="28"/>
+      <c r="AZ63" s="29"/>
+      <c r="BA63" s="29"/>
+      <c r="BB63" s="30"/>
+      <c r="BC63" s="28"/>
+      <c r="BD63" s="29"/>
+      <c r="BE63" s="29"/>
+      <c r="BF63" s="30"/>
+      <c r="BG63" s="28"/>
+      <c r="BH63" s="29"/>
+      <c r="BI63" s="29"/>
+      <c r="BJ63" s="30"/>
+    </row>
+    <row r="64" spans="1:62" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="73"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="34"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="34"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="34"/>
+      <c r="AQ64" s="32"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="34"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="34"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="34"/>
+      <c r="BC64" s="32"/>
+      <c r="BD64" s="33"/>
+      <c r="BE64" s="33"/>
+      <c r="BF64" s="34"/>
+      <c r="BG64" s="32"/>
+      <c r="BH64" s="33"/>
+      <c r="BI64" s="33"/>
+      <c r="BJ64" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:E22"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:E38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:E42"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="D51:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
+  <mergeCells count="68">
+    <mergeCell ref="A7:A54"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:E50"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:E30"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:E46"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:E34"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:E54"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B6"/>
@@ -4445,28 +4982,45 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:E46"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:E34"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D15:E18"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A7:A46"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D59:E62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:E58"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:E42"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:E30"/>
     <mergeCell ref="D7:E10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:E14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:E22"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:E38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
